--- a/New Shoes.xlsx
+++ b/New Shoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reed/PycharmProjects/760_Marketing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BD9F89-E97C-6C47-8606-DE74F02249DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64B8E15-3F79-BD46-85E8-3339808E31EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12740" yWindow="13780" windowWidth="21900" windowHeight="8940" xr2:uid="{35ED14CE-7522-5B4E-8ED6-92489854B887}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="3" xr2:uid="{35ED14CE-7522-5B4E-8ED6-92489854B887}"/>
   </bookViews>
   <sheets>
     <sheet name="-1" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="18">
   <si>
     <t>Akili Max</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Corporate</t>
+  </si>
+  <si>
+    <t>Product Level</t>
   </si>
 </sst>
 </file>
@@ -443,76 +446,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666F882C-7748-A54D-AC11-7FB920C28AD3}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -520,22 +529,25 @@
         <v>800000</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>90</v>
       </c>
-      <c r="D3">
-        <v>1000000</v>
-      </c>
       <c r="E3">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="F3">
+        <v>2000000</v>
+      </c>
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -543,22 +555,25 @@
         <v>800000</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>90</v>
       </c>
-      <c r="D4">
-        <v>1000000</v>
-      </c>
       <c r="E4">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="F4">
+        <v>2000000</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="G4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -566,22 +581,25 @@
         <v>800000</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>90</v>
       </c>
-      <c r="D5">
-        <v>1000000</v>
-      </c>
       <c r="E5">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="F5">
+        <v>2000000</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -589,22 +607,25 @@
         <v>800000</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>90</v>
       </c>
-      <c r="D6">
-        <v>1000000</v>
-      </c>
       <c r="E6">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="F6">
+        <v>2000000</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -612,22 +633,25 @@
         <v>800000</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>90</v>
       </c>
-      <c r="D7">
-        <v>1000000</v>
-      </c>
       <c r="E7">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="F7">
+        <v>2000000</v>
+      </c>
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -635,22 +659,25 @@
         <v>800000</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>90</v>
       </c>
-      <c r="D8">
-        <v>1000000</v>
-      </c>
       <c r="E8">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="F8">
+        <v>2000000</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -658,25 +685,29 @@
         <v>800000</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>90</v>
       </c>
-      <c r="D9">
-        <v>1000000</v>
-      </c>
       <c r="E9">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="F9">
+        <v>2000000</v>
+      </c>
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1000000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:O1"/>
+  <mergeCells count="3">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -684,67 +715,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03D8580-9FB5-864D-B682-9D20584055D4}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -752,37 +787,40 @@
         <v>900000</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>110</v>
       </c>
-      <c r="D3">
-        <v>1500000</v>
-      </c>
       <c r="E3">
+        <v>1500000</v>
+      </c>
+      <c r="F3">
         <v>2500000</v>
       </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
       <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
         <v>1200000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>90</v>
       </c>
-      <c r="J3">
-        <v>2000000</v>
-      </c>
       <c r="K3">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>1500000</v>
       </c>
       <c r="M3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -790,37 +828,40 @@
         <v>900000</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>110</v>
       </c>
-      <c r="D4">
-        <v>1500000</v>
-      </c>
       <c r="E4">
+        <v>1500000</v>
+      </c>
+      <c r="F4">
         <v>2500000</v>
       </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
       <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
         <v>1200000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>90</v>
       </c>
-      <c r="J4">
-        <v>2000000</v>
-      </c>
       <c r="K4">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>1500000</v>
       </c>
       <c r="M4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -828,37 +869,40 @@
         <v>900000</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>110</v>
       </c>
-      <c r="D5">
-        <v>1500000</v>
-      </c>
       <c r="E5">
+        <v>1500000</v>
+      </c>
+      <c r="F5">
         <v>2500000</v>
       </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
       <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
         <v>1200000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>90</v>
       </c>
-      <c r="J5">
-        <v>2000000</v>
-      </c>
       <c r="K5">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>1500000</v>
       </c>
       <c r="M5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -866,37 +910,40 @@
         <v>900000</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>110</v>
       </c>
-      <c r="D6">
-        <v>1500000</v>
-      </c>
       <c r="E6">
+        <v>1500000</v>
+      </c>
+      <c r="F6">
         <v>2500000</v>
       </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
       <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
         <v>1200000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>90</v>
       </c>
-      <c r="J6">
-        <v>2000000</v>
-      </c>
       <c r="K6">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>1500000</v>
       </c>
       <c r="M6">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -904,37 +951,40 @@
         <v>900000</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>110</v>
       </c>
-      <c r="D7">
-        <v>1500000</v>
-      </c>
       <c r="E7">
+        <v>1500000</v>
+      </c>
+      <c r="F7">
         <v>2500000</v>
       </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
       <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
         <v>1200000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>90</v>
       </c>
-      <c r="J7">
-        <v>2000000</v>
-      </c>
       <c r="K7">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>1500000</v>
       </c>
       <c r="M7">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -942,37 +992,40 @@
         <v>900000</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>110</v>
       </c>
-      <c r="D8">
-        <v>1500000</v>
-      </c>
       <c r="E8">
+        <v>1500000</v>
+      </c>
+      <c r="F8">
         <v>2500000</v>
       </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
       <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
         <v>1200000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>90</v>
       </c>
-      <c r="J8">
-        <v>2000000</v>
-      </c>
       <c r="K8">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>1500000</v>
       </c>
       <c r="M8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -980,104 +1033,114 @@
         <v>900000</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>110</v>
       </c>
-      <c r="D9">
-        <v>1500000</v>
-      </c>
       <c r="E9">
+        <v>1500000</v>
+      </c>
+      <c r="F9">
         <v>2500000</v>
       </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
       <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
         <v>1200000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>90</v>
       </c>
-      <c r="J9">
-        <v>2000000</v>
-      </c>
       <c r="K9">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>1500000</v>
       </c>
       <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
         <v>1000000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE93CBA-5A59-464F-AFBB-4769B2CEA28B}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1085,43 +1148,46 @@
         <v>1500000</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>55</v>
       </c>
-      <c r="D3">
-        <v>1000000</v>
-      </c>
       <c r="E3">
+        <v>1000000</v>
+      </c>
+      <c r="F3">
         <v>500000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>900000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>77</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>55</v>
       </c>
-      <c r="J3">
-        <v>1000000</v>
-      </c>
       <c r="K3">
+        <v>1000000</v>
+      </c>
+      <c r="L3">
         <v>500000</v>
       </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
       <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
         <v>800000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1129,43 +1195,46 @@
         <v>950000</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>105</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1200000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2250000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>1000000</v>
-      </c>
       <c r="H4">
+        <v>1000000</v>
+      </c>
+      <c r="I4">
         <v>52.8</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>95</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1800000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1300000</v>
       </c>
-      <c r="L4">
-        <v>7</v>
-      </c>
       <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
         <v>900000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>43.4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1173,43 +1242,46 @@
         <v>900000</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>110</v>
       </c>
-      <c r="D5">
-        <v>1500000</v>
-      </c>
       <c r="E5">
+        <v>1500000</v>
+      </c>
+      <c r="F5">
         <v>2500000</v>
       </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
       <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
         <v>1200000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>46.2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>90</v>
       </c>
-      <c r="J5">
-        <v>2000000</v>
-      </c>
       <c r="K5">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>1500000</v>
       </c>
       <c r="M5">
-        <v>1000000</v>
+        <v>7</v>
       </c>
       <c r="N5">
+        <v>1000000</v>
+      </c>
+      <c r="O5">
         <v>49.1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1217,43 +1289,46 @@
         <v>2000000</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>77.989999999999995</v>
       </c>
-      <c r="D6">
-        <v>2000000</v>
-      </c>
       <c r="E6">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="F6">
+        <v>1000000</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>500000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>77</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>74.989999999999995</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1700000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>700000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>10</v>
       </c>
-      <c r="M6">
-        <v>1000000</v>
-      </c>
       <c r="N6">
+        <v>1000000</v>
+      </c>
+      <c r="O6">
         <v>66.7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1261,43 +1336,46 @@
         <v>1350000</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>99.99</v>
       </c>
-      <c r="D7">
-        <v>1500000</v>
-      </c>
       <c r="E7">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>2000000</v>
       </c>
       <c r="G7">
-        <v>1000000</v>
+        <v>7</v>
       </c>
       <c r="H7">
+        <v>1000000</v>
+      </c>
+      <c r="I7">
         <v>59.4</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>90.99</v>
       </c>
-      <c r="J7">
-        <v>2000000</v>
-      </c>
       <c r="K7">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="L7">
+        <v>1000000</v>
+      </c>
+      <c r="M7">
         <v>9</v>
       </c>
-      <c r="M7">
-        <v>1000000</v>
-      </c>
       <c r="N7">
+        <v>1000000</v>
+      </c>
+      <c r="O7">
         <v>47.9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1305,43 +1383,46 @@
         <v>2000000</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>99.99</v>
       </c>
-      <c r="D8">
-        <v>1000000</v>
-      </c>
       <c r="E8">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="F8">
+        <v>1500000</v>
+      </c>
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8">
-        <v>1000000</v>
-      </c>
       <c r="H8">
+        <v>1000000</v>
+      </c>
+      <c r="I8">
         <v>59.4</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>79.989999999999995</v>
       </c>
-      <c r="J8">
-        <v>1000000</v>
-      </c>
       <c r="K8">
         <v>1000000</v>
       </c>
       <c r="L8">
+        <v>1000000</v>
+      </c>
+      <c r="M8">
         <v>8</v>
       </c>
-      <c r="M8">
-        <v>1000000</v>
-      </c>
       <c r="N8">
+        <v>1000000</v>
+      </c>
+      <c r="O8">
         <v>60.8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1349,159 +1430,170 @@
         <v>2000000</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>85</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>850000</v>
       </c>
-      <c r="E9">
-        <v>1000000</v>
-      </c>
       <c r="F9">
+        <v>1000000</v>
+      </c>
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>350000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>77</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>79</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1250000</v>
       </c>
-      <c r="K9">
-        <v>1000000</v>
-      </c>
       <c r="L9">
+        <v>1000000</v>
+      </c>
+      <c r="M9">
         <v>10</v>
       </c>
-      <c r="M9">
-        <v>1000000</v>
-      </c>
       <c r="N9">
+        <v>1000000</v>
+      </c>
+      <c r="O9">
         <v>62</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825A73BD-E9D2-8148-821A-AACF8208B0E8}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:O1"/>
+  <mergeCells count="3">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Shoes.xlsx
+++ b/New Shoes.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reed/PycharmProjects/760_Marketing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64B8E15-3F79-BD46-85E8-3339808E31EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDCD099-FE3E-BC49-B29E-BD6E2C5850B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="3" xr2:uid="{35ED14CE-7522-5B4E-8ED6-92489854B887}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="4" xr2:uid="{35ED14CE-7522-5B4E-8ED6-92489854B887}"/>
   </bookViews>
   <sheets>
     <sheet name="-1" sheetId="6" r:id="rId1"/>
     <sheet name="0" sheetId="5" r:id="rId2"/>
     <sheet name="1" sheetId="3" r:id="rId3"/>
     <sheet name="2" sheetId="4" r:id="rId4"/>
+    <sheet name="3" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="20">
   <si>
     <t>Akili Max</t>
   </si>
@@ -93,12 +94,32 @@
   <si>
     <t>Product Level</t>
   </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,17 +145,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,268 +481,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666F882C-7748-A54D-AC11-7FB920C28AD3}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>800000</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6"/>
+      <c r="E3" s="3">
         <v>90</v>
       </c>
-      <c r="E3">
-        <v>1000000</v>
-      </c>
-      <c r="F3">
-        <v>2000000</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="H3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I3" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>800000</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6"/>
+      <c r="E4" s="3">
         <v>90</v>
       </c>
-      <c r="E4">
-        <v>1000000</v>
-      </c>
-      <c r="F4">
-        <v>2000000</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="H4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I4" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>800000</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6"/>
+      <c r="E5" s="3">
         <v>90</v>
       </c>
-      <c r="E5">
-        <v>1000000</v>
-      </c>
-      <c r="F5">
-        <v>2000000</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="H5" s="1">
         <v>5</v>
       </c>
-      <c r="H5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I5" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>800000</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6"/>
+      <c r="E6" s="3">
         <v>90</v>
       </c>
-      <c r="E6">
-        <v>1000000</v>
-      </c>
-      <c r="F6">
-        <v>2000000</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>800000</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6"/>
+      <c r="E7" s="3">
         <v>90</v>
       </c>
-      <c r="E7">
-        <v>1000000</v>
-      </c>
-      <c r="F7">
-        <v>2000000</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="H7">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I7" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>800000</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6"/>
+      <c r="E8" s="3">
         <v>90</v>
       </c>
-      <c r="E8">
-        <v>1000000</v>
-      </c>
-      <c r="F8">
-        <v>2000000</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="H8" s="1">
         <v>5</v>
       </c>
-      <c r="H8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I8" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>800000</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6"/>
+      <c r="E9" s="3">
         <v>90</v>
       </c>
-      <c r="E9">
-        <v>1000000</v>
-      </c>
-      <c r="F9">
-        <v>2000000</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="H9" s="1">
         <v>5</v>
       </c>
-      <c r="H9">
-        <v>1000000</v>
-      </c>
+      <c r="I9" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T10" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="4">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -715,360 +876,464 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03D8580-9FB5-864D-B682-9D20584055D4}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>900000</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6"/>
+      <c r="E3" s="3">
         <v>110</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="3">
         <v>1500000</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="3">
         <v>2500000</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="1">
         <v>7</v>
       </c>
-      <c r="H3">
+      <c r="I3" s="3">
         <v>1200000</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4"/>
+      <c r="K3" s="3">
         <v>90</v>
       </c>
-      <c r="K3">
-        <v>2000000</v>
-      </c>
-      <c r="L3">
+      <c r="L3" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="M3" s="3">
         <v>1500000</v>
       </c>
-      <c r="M3">
+      <c r="N3" s="1">
         <v>7</v>
       </c>
-      <c r="N3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O3" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>900000</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6"/>
+      <c r="E4" s="3">
         <v>110</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="3">
         <v>1500000</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="3">
         <v>2500000</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="1">
         <v>7</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="3">
         <v>1200000</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4"/>
+      <c r="K4" s="3">
         <v>90</v>
       </c>
-      <c r="K4">
-        <v>2000000</v>
-      </c>
-      <c r="L4">
+      <c r="L4" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="M4" s="3">
         <v>1500000</v>
       </c>
-      <c r="M4">
+      <c r="N4" s="1">
         <v>7</v>
       </c>
-      <c r="N4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>900000</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6"/>
+      <c r="E5" s="3">
         <v>110</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="3">
         <v>1500000</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="3">
         <v>2500000</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="1">
         <v>7</v>
       </c>
-      <c r="H5">
+      <c r="I5" s="3">
         <v>1200000</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4"/>
+      <c r="K5" s="3">
         <v>90</v>
       </c>
-      <c r="K5">
-        <v>2000000</v>
-      </c>
-      <c r="L5">
+      <c r="L5" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="M5" s="3">
         <v>1500000</v>
       </c>
-      <c r="M5">
+      <c r="N5" s="1">
         <v>7</v>
       </c>
-      <c r="N5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>900000</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6"/>
+      <c r="E6" s="3">
         <v>110</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="3">
         <v>1500000</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="3">
         <v>2500000</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="1">
         <v>7</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="3">
         <v>1200000</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4"/>
+      <c r="K6" s="3">
         <v>90</v>
       </c>
-      <c r="K6">
-        <v>2000000</v>
-      </c>
-      <c r="L6">
+      <c r="L6" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="M6" s="3">
         <v>1500000</v>
       </c>
-      <c r="M6">
+      <c r="N6" s="1">
         <v>7</v>
       </c>
-      <c r="N6">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>900000</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6"/>
+      <c r="E7" s="3">
         <v>110</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="3">
         <v>1500000</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="3">
         <v>2500000</v>
       </c>
-      <c r="G7">
+      <c r="H7" s="1">
         <v>7</v>
       </c>
-      <c r="H7">
+      <c r="I7" s="3">
         <v>1200000</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4"/>
+      <c r="K7" s="3">
         <v>90</v>
       </c>
-      <c r="K7">
-        <v>2000000</v>
-      </c>
-      <c r="L7">
+      <c r="L7" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="M7" s="3">
         <v>1500000</v>
       </c>
-      <c r="M7">
+      <c r="N7" s="1">
         <v>7</v>
       </c>
-      <c r="N7">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>900000</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6"/>
+      <c r="E8" s="3">
         <v>110</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="3">
         <v>1500000</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="3">
         <v>2500000</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="1">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="I8" s="3">
         <v>1200000</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4"/>
+      <c r="K8" s="3">
         <v>90</v>
       </c>
-      <c r="K8">
-        <v>2000000</v>
-      </c>
-      <c r="L8">
+      <c r="L8" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="M8" s="3">
         <v>1500000</v>
       </c>
-      <c r="M8">
+      <c r="N8" s="1">
         <v>7</v>
       </c>
-      <c r="N8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>900000</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6"/>
+      <c r="E9" s="3">
         <v>110</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="3">
         <v>1500000</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="3">
         <v>2500000</v>
       </c>
-      <c r="G9">
+      <c r="H9" s="1">
         <v>7</v>
       </c>
-      <c r="H9">
+      <c r="I9" s="3">
         <v>1200000</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4"/>
+      <c r="K9" s="3">
         <v>90</v>
       </c>
-      <c r="K9">
-        <v>2000000</v>
-      </c>
-      <c r="L9">
+      <c r="L9" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="M9" s="3">
         <v>1500000</v>
       </c>
-      <c r="M9">
+      <c r="N9" s="1">
         <v>7</v>
       </c>
-      <c r="N9">
-        <v>1000000</v>
-      </c>
+      <c r="O9" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T10" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1076,402 +1341,513 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE93CBA-5A59-464F-AFBB-4769B2CEA28B}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1500000</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
+        <v>244506</v>
+      </c>
+      <c r="E3" s="3">
         <v>55</v>
       </c>
-      <c r="E3">
-        <v>1000000</v>
-      </c>
-      <c r="F3">
+      <c r="F3" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G3" s="3">
         <v>500000</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="1">
         <v>8</v>
       </c>
-      <c r="H3">
+      <c r="I3" s="3">
         <v>900000</v>
       </c>
-      <c r="I3">
+      <c r="J3" s="4">
         <v>77</v>
       </c>
-      <c r="J3">
+      <c r="K3" s="3">
         <v>55</v>
       </c>
-      <c r="K3">
-        <v>1000000</v>
-      </c>
-      <c r="L3">
+      <c r="L3" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="M3" s="3">
         <v>500000</v>
       </c>
-      <c r="M3">
+      <c r="N3" s="1">
         <v>7</v>
       </c>
-      <c r="N3">
+      <c r="O3" s="3">
         <v>800000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>950000</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
+        <v>140463</v>
+      </c>
+      <c r="E4" s="3">
         <v>105</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="3">
         <v>1200000</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="3">
         <v>2250000</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="1">
         <v>6</v>
       </c>
-      <c r="H4">
-        <v>1000000</v>
-      </c>
-      <c r="I4">
+      <c r="I4" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="J4" s="4">
         <v>52.8</v>
       </c>
-      <c r="J4">
+      <c r="K4" s="3">
         <v>95</v>
       </c>
-      <c r="K4">
+      <c r="L4" s="3">
         <v>1800000</v>
       </c>
-      <c r="L4">
+      <c r="M4" s="3">
         <v>1300000</v>
       </c>
-      <c r="M4">
+      <c r="N4" s="1">
         <v>7</v>
       </c>
-      <c r="N4">
+      <c r="O4" s="3">
         <v>900000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>43.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>900000</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
+        <v>163997</v>
+      </c>
+      <c r="E5" s="3">
         <v>110</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="3">
         <v>1500000</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="3">
         <v>2500000</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="1">
         <v>7</v>
       </c>
-      <c r="H5">
+      <c r="I5" s="3">
         <v>1200000</v>
       </c>
-      <c r="I5">
+      <c r="J5" s="4">
         <v>46.2</v>
       </c>
-      <c r="J5">
+      <c r="K5" s="3">
         <v>90</v>
       </c>
-      <c r="K5">
-        <v>2000000</v>
-      </c>
-      <c r="L5">
+      <c r="L5" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="M5" s="3">
         <v>1500000</v>
       </c>
-      <c r="M5">
+      <c r="N5" s="1">
         <v>7</v>
       </c>
-      <c r="N5">
-        <v>1000000</v>
-      </c>
-      <c r="O5">
+      <c r="O5" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="P5">
         <v>49.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>2000000</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
+        <v>310468</v>
+      </c>
+      <c r="E6" s="3">
         <v>77.989999999999995</v>
       </c>
-      <c r="E6">
-        <v>2000000</v>
-      </c>
-      <c r="F6">
-        <v>1000000</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="3">
         <v>500000</v>
       </c>
-      <c r="I6">
+      <c r="J6" s="4">
         <v>77</v>
       </c>
-      <c r="J6">
+      <c r="K6" s="3">
         <v>74.989999999999995</v>
       </c>
-      <c r="K6">
+      <c r="L6" s="3">
         <v>1700000</v>
       </c>
-      <c r="L6">
+      <c r="M6" s="3">
         <v>700000</v>
       </c>
-      <c r="M6">
+      <c r="N6" s="1">
         <v>10</v>
       </c>
-      <c r="N6">
-        <v>1000000</v>
-      </c>
-      <c r="O6">
+      <c r="O6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="P6">
         <v>66.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1350000</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
+        <v>179891</v>
+      </c>
+      <c r="E7" s="3">
         <v>99.99</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="3">
         <v>1500000</v>
       </c>
-      <c r="F7">
-        <v>2000000</v>
-      </c>
-      <c r="G7">
+      <c r="G7" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="H7" s="1">
         <v>7</v>
       </c>
-      <c r="H7">
-        <v>1000000</v>
-      </c>
-      <c r="I7">
+      <c r="I7" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="4">
         <v>59.4</v>
       </c>
-      <c r="J7">
+      <c r="K7" s="3">
         <v>90.99</v>
       </c>
-      <c r="K7">
-        <v>2000000</v>
-      </c>
-      <c r="L7">
-        <v>1000000</v>
-      </c>
-      <c r="M7">
+      <c r="L7" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="N7" s="1">
         <v>9</v>
       </c>
-      <c r="N7">
-        <v>1000000</v>
-      </c>
-      <c r="O7">
+      <c r="O7" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="P7">
         <v>47.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>2000000</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
+        <v>210523</v>
+      </c>
+      <c r="E8" s="3">
         <v>99.99</v>
       </c>
-      <c r="E8">
-        <v>1000000</v>
-      </c>
-      <c r="F8">
+      <c r="F8" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G8" s="3">
         <v>1500000</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="1">
         <v>6</v>
       </c>
-      <c r="H8">
-        <v>1000000</v>
-      </c>
-      <c r="I8">
+      <c r="I8" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="4">
         <v>59.4</v>
       </c>
-      <c r="J8">
+      <c r="K8" s="3">
         <v>79.989999999999995</v>
       </c>
-      <c r="K8">
-        <v>1000000</v>
-      </c>
-      <c r="L8">
-        <v>1000000</v>
-      </c>
-      <c r="M8">
+      <c r="L8" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="N8" s="1">
         <v>8</v>
       </c>
-      <c r="N8">
-        <v>1000000</v>
-      </c>
-      <c r="O8">
+      <c r="O8" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="P8">
         <v>60.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>2000000</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
+        <v>254111</v>
+      </c>
+      <c r="E9" s="3">
         <v>85</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="3">
         <v>850000</v>
       </c>
-      <c r="F9">
-        <v>1000000</v>
-      </c>
-      <c r="G9">
+      <c r="G9" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H9" s="1">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="I9" s="3">
         <v>350000</v>
       </c>
-      <c r="I9">
+      <c r="J9" s="4">
         <v>77</v>
       </c>
-      <c r="J9">
+      <c r="K9" s="3">
         <v>79</v>
       </c>
-      <c r="K9">
+      <c r="L9" s="3">
         <v>1250000</v>
       </c>
-      <c r="L9">
-        <v>1000000</v>
-      </c>
-      <c r="M9">
+      <c r="M9" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="N9" s="1">
         <v>10</v>
       </c>
-      <c r="N9">
-        <v>1000000</v>
-      </c>
-      <c r="O9">
+      <c r="O9" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="P9">
         <v>62</v>
       </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T10" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1479,121 +1855,1152 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825A73BD-E9D2-8148-821A-AACF8208B0E8}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:V10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>195867</v>
+      </c>
+      <c r="E3" s="3">
+        <v>85</v>
+      </c>
+      <c r="F3" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>50000</v>
+      </c>
+      <c r="J3" s="4">
+        <v>78.3</v>
+      </c>
+      <c r="K3" s="3">
+        <v>55</v>
+      </c>
+      <c r="L3" s="3">
+        <v>200000</v>
+      </c>
+      <c r="M3" s="3">
+        <v>500000</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3">
+        <v>400000</v>
+      </c>
+      <c r="P3">
+        <v>78.7</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>85</v>
+      </c>
+      <c r="R3" s="3">
+        <v>150000</v>
+      </c>
+      <c r="S3" s="3">
+        <v>100000</v>
+      </c>
+      <c r="T3" s="5">
+        <v>5</v>
+      </c>
+      <c r="U3" s="3">
+        <v>450000</v>
+      </c>
+      <c r="V3" s="5">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>336649</v>
+      </c>
+      <c r="E4" s="3">
+        <v>87</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1350000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="J4" s="4">
+        <v>75.7</v>
+      </c>
+      <c r="K4" s="3">
+        <v>78</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="N4" s="1">
+        <v>6</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="P4">
+        <v>59.8</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>65</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="S4" s="3">
+        <v>750000</v>
+      </c>
+      <c r="T4" s="5">
+        <v>5</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="V4" s="5">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>900000</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>163767</v>
+      </c>
+      <c r="E5" s="3">
+        <v>110</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="J5" s="4">
+        <v>45.3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>90</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="N5" s="1">
+        <v>7</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="P5">
+        <v>45.7</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>373202</v>
+      </c>
+      <c r="E6" s="3">
+        <v>73.989999999999995</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>500000</v>
+      </c>
+      <c r="J6" s="4">
+        <v>78.7</v>
+      </c>
+      <c r="K6" s="3">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="M6" s="3">
+        <v>700000</v>
+      </c>
+      <c r="N6" s="1">
+        <v>10</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="P6">
+        <v>69.2</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>90</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="S6" s="3">
+        <v>800000</v>
+      </c>
+      <c r="T6" s="5">
+        <v>10</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="V6" s="5">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>246318</v>
+      </c>
+      <c r="E7" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3">
+        <v>600000</v>
+      </c>
+      <c r="J7" s="4">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="K7" s="3">
+        <v>85</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1600000</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="N7" s="1">
+        <v>8</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="P7">
+        <v>51.6</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>107.99</v>
+      </c>
+      <c r="R7" s="3">
+        <v>50000</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>9</v>
+      </c>
+      <c r="U7" s="3">
+        <v>900000</v>
+      </c>
+      <c r="V7" s="5">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2250000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>345908</v>
+      </c>
+      <c r="E8" s="3">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J8" s="4">
+        <v>78.7</v>
+      </c>
+      <c r="K8" s="3">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="M8" s="3">
+        <v>750000</v>
+      </c>
+      <c r="N8" s="1">
+        <v>10</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="P8">
+        <v>69.2</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>125</v>
+      </c>
+      <c r="R8" s="3">
+        <v>250000</v>
+      </c>
+      <c r="S8" s="3">
+        <v>250000</v>
+      </c>
+      <c r="T8" s="5">
+        <v>10</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="V8" s="5">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>334596</v>
+      </c>
+      <c r="E9" s="3">
+        <v>81.99</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1750000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>200000</v>
+      </c>
+      <c r="J9" s="4">
+        <v>78.7</v>
+      </c>
+      <c r="K9" s="3">
+        <v>75</v>
+      </c>
+      <c r="L9" s="3">
+        <v>800000</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="N9" s="1">
+        <v>10</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="P9">
+        <v>63.4</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>89</v>
+      </c>
+      <c r="R9" s="3">
+        <v>500000</v>
+      </c>
+      <c r="S9" s="3">
+        <v>250000</v>
+      </c>
+      <c r="T9" s="5">
+        <v>10</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="V9" s="5">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD5C841-E781-D642-BB90-36A189EDCA41}">
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>82</v>
+      </c>
+      <c r="F3" s="9">
+        <v>300000</v>
+      </c>
+      <c r="G3" s="9">
+        <v>400000</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>100000</v>
+      </c>
+      <c r="J3" s="5">
+        <v>76.3</v>
+      </c>
+      <c r="K3" s="8">
+        <v>50</v>
+      </c>
+      <c r="L3" s="9">
+        <v>400000</v>
+      </c>
+      <c r="M3" s="9">
+        <v>800000</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" s="9">
+        <v>600000</v>
+      </c>
+      <c r="P3" s="5">
+        <v>76.3</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>85</v>
+      </c>
+      <c r="R3" s="9">
+        <v>200000</v>
+      </c>
+      <c r="S3" s="9">
+        <v>150000</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3" s="9">
+        <v>700000</v>
+      </c>
+      <c r="V3" s="5">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>85</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1300000</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2100000</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="J4" s="5">
+        <v>76.3</v>
+      </c>
+      <c r="K4" s="8">
+        <v>70</v>
+      </c>
+      <c r="L4" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1100000</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4" s="9">
+        <v>1300000</v>
+      </c>
+      <c r="P4" s="5">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>75</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1100000</v>
+      </c>
+      <c r="S4" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4" s="9">
+        <v>1750000</v>
+      </c>
+      <c r="V4" s="5">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>900000</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>110</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2500000</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1200000</v>
+      </c>
+      <c r="J5" s="5">
+        <v>43.3</v>
+      </c>
+      <c r="K5" s="8">
+        <v>90</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="P5" s="5">
+        <v>42.699999999999996</v>
+      </c>
+      <c r="V5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>76.989999999999995</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>500000</v>
+      </c>
+      <c r="J6" s="5">
+        <v>83.6</v>
+      </c>
+      <c r="K6" s="8">
+        <v>73.989999999999995</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1700000</v>
+      </c>
+      <c r="M6" s="9">
+        <v>700000</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="P6" s="5">
+        <v>66.7</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>105</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="S6" s="9">
+        <v>800000</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="V6" s="5">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>91.99</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1700000</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1700000</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9">
+        <v>600000</v>
+      </c>
+      <c r="J7" s="5">
+        <v>67.100000000000009</v>
+      </c>
+      <c r="K7" s="8">
+        <v>69.5</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="M7" s="9">
+        <v>900000</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="P7" s="5">
+        <v>64.7</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>93</v>
+      </c>
+      <c r="R7" s="9">
+        <v>100000</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>9</v>
+      </c>
+      <c r="U7" s="9">
+        <v>900000</v>
+      </c>
+      <c r="V7" s="5">
+        <v>69.699999999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>84.99</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2250000</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="9">
+        <v>250000</v>
+      </c>
+      <c r="J8" s="5">
+        <v>83.6</v>
+      </c>
+      <c r="K8" s="8">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1250000</v>
+      </c>
+      <c r="N8">
+        <v>11</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="P8" s="5">
+        <v>71.399999999999991</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>89.99</v>
+      </c>
+      <c r="R8" s="9">
+        <v>200000</v>
+      </c>
+      <c r="S8" s="9">
+        <v>200000</v>
+      </c>
+      <c r="T8">
+        <v>11</v>
+      </c>
+      <c r="U8" s="9">
+        <v>1100000</v>
+      </c>
+      <c r="V8" s="5">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>83.99</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="9">
+        <v>200000</v>
+      </c>
+      <c r="J9" s="5">
+        <v>83.6</v>
+      </c>
+      <c r="K9" s="8">
+        <v>77</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="P9" s="5">
+        <v>63.2</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>93.99</v>
+      </c>
+      <c r="R9" s="9">
+        <v>600000</v>
+      </c>
+      <c r="S9" s="9">
+        <v>350000</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+      <c r="U9" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="V9" s="5">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T10" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
